--- a/src/stp/database/2026-mens-world-cup.xlsx
+++ b/src/stp/database/2026-mens-world-cup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE96611-2913-D544-B33D-B0A771B38C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE1667-6F26-A44F-BC74-50CD9A8DE484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -1239,7 +1239,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -1296,14 +1302,18 @@
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
-    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team"/>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team"/>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1641,7 +1651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2270,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2335,6 +2345,14 @@
       <c r="E2">
         <v>14</v>
       </c>
+      <c r="F2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
+      <c r="G2" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -2352,6 +2370,14 @@
       <c r="E3">
         <v>15</v>
       </c>
+      <c r="F3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??D</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -2369,6 +2395,14 @@
       <c r="E4">
         <v>2</v>
       </c>
+      <c r="F4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??A</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2386,6 +2420,14 @@
       <c r="E5">
         <v>8</v>
       </c>
+      <c r="F5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G5" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -2403,6 +2445,14 @@
       <c r="E6">
         <v>12</v>
       </c>
+      <c r="F6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -2420,6 +2470,14 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
+      <c r="G7" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??C</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -2437,6 +2495,14 @@
       <c r="E8">
         <v>3</v>
       </c>
+      <c r="F8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+      <c r="G8" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -2454,6 +2520,14 @@
       <c r="E9">
         <v>11</v>
       </c>
+      <c r="F9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>QAT</v>
+      </c>
+      <c r="G9" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -2471,6 +2545,14 @@
       <c r="E10">
         <v>9</v>
       </c>
+      <c r="F10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CIV</v>
+      </c>
+      <c r="G10" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -2488,6 +2570,14 @@
       <c r="E11">
         <v>6</v>
       </c>
+      <c r="F11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CUW</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -2505,6 +2595,14 @@
       <c r="E12">
         <v>5</v>
       </c>
+      <c r="F12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+      <c r="G12" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -2522,6 +2620,14 @@
       <c r="E13">
         <v>16</v>
       </c>
+      <c r="F13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??B</v>
+      </c>
+      <c r="G13" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>TUN</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -2539,6 +2645,14 @@
       <c r="E14">
         <v>13</v>
       </c>
+      <c r="F14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>KSA</v>
+      </c>
+      <c r="G14" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -2556,6 +2670,14 @@
       <c r="E15">
         <v>7</v>
       </c>
+      <c r="F15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CPV</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -2573,8 +2695,16 @@
       <c r="E16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>IRN</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2590,8 +2720,16 @@
       <c r="E17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>EGY</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2607,8 +2745,16 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SEN</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2624,8 +2770,16 @@
       <c r="E19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??2</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2641,8 +2795,16 @@
       <c r="E20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ALG</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2658,8 +2820,16 @@
       <c r="E21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JOR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2675,8 +2845,16 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GHA</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2692,8 +2870,16 @@
       <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2709,8 +2895,16 @@
       <c r="E24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2726,8 +2920,16 @@
       <c r="E25">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>UZB</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2743,8 +2945,16 @@
       <c r="E26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??D</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2760,8 +2970,16 @@
       <c r="E27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??A</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2777,8 +2995,16 @@
       <c r="E28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>QAT</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2794,8 +3020,16 @@
       <c r="E29">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2811,8 +3045,16 @@
       <c r="E30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2828,8 +3070,16 @@
       <c r="E31">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2845,8 +3095,16 @@
       <c r="E32">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??C</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2862,8 +3120,16 @@
       <c r="E33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2879,8 +3145,16 @@
       <c r="E34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CIV</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2896,8 +3170,16 @@
       <c r="E35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CUW</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2913,8 +3195,16 @@
       <c r="E36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??B</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2930,8 +3220,16 @@
       <c r="E37">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>TUN</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2947,8 +3245,16 @@
       <c r="E38">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
+      <c r="G38" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CPV</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2964,8 +3270,16 @@
       <c r="E39">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>KSA</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2981,8 +3295,16 @@
       <c r="E40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>IRN</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2998,8 +3320,16 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
+      <c r="G41" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>EGY</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3015,8 +3345,16 @@
       <c r="E42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>SEN</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3032,8 +3370,16 @@
       <c r="E43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3049,8 +3395,16 @@
       <c r="E44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3066,8 +3420,16 @@
       <c r="E45">
         <v>11</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JOR</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ALG</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3083,8 +3445,16 @@
       <c r="E46">
         <v>12</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GHA</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3100,8 +3470,16 @@
       <c r="E47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3117,8 +3495,16 @@
       <c r="E48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+      <c r="G48" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UZB</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3134,8 +3520,16 @@
       <c r="E49">
         <v>15</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+      <c r="G49" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3151,8 +3545,16 @@
       <c r="E50">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SCO</v>
+      </c>
+      <c r="G50" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BRA</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3168,8 +3570,16 @@
       <c r="E51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>MAR</v>
+      </c>
+      <c r="G51" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>HAI</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3185,8 +3595,16 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SUI</v>
+      </c>
+      <c r="G52" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CAN</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3202,8 +3620,16 @@
       <c r="E53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??A</v>
+      </c>
+      <c r="G53" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>QAT</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3219,8 +3645,16 @@
       <c r="E54">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??D</v>
+      </c>
+      <c r="G54" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>MEX</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3236,8 +3670,16 @@
       <c r="E55">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SAF</v>
+      </c>
+      <c r="G55" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>KOR</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3253,8 +3695,16 @@
       <c r="E56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CUW</v>
+      </c>
+      <c r="G56" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>CIV</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3270,8 +3720,16 @@
       <c r="E57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ECU</v>
+      </c>
+      <c r="G57" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GER</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3287,8 +3745,16 @@
       <c r="E58">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JPN</v>
+      </c>
+      <c r="G58" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??B</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3304,8 +3770,16 @@
       <c r="E59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>TUN</v>
+      </c>
+      <c r="G59" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>NED</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3321,8 +3795,16 @@
       <c r="E60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??C</v>
+      </c>
+      <c r="G60" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>USA</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3338,8 +3820,16 @@
       <c r="E61">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAR</v>
+      </c>
+      <c r="G61" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUS</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3355,8 +3845,16 @@
       <c r="E62">
         <v>12</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NOR</v>
+      </c>
+      <c r="G62" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>FRA</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3372,8 +3870,16 @@
       <c r="E63">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>SEN</v>
+      </c>
+      <c r="G63" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>??2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3389,8 +3895,16 @@
       <c r="E64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>EGY</v>
+      </c>
+      <c r="G64" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>IRN</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3406,8 +3920,16 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>NZL</v>
+      </c>
+      <c r="G65" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>BEL</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3423,8 +3945,16 @@
       <c r="E66">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CPV</v>
+      </c>
+      <c r="G66" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>KSA</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3440,8 +3970,16 @@
       <c r="E67">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>URU</v>
+      </c>
+      <c r="G67" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ESP</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3457,8 +3995,16 @@
       <c r="E68">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>PAN</v>
+      </c>
+      <c r="G68" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ENG</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3474,8 +4020,16 @@
       <c r="E69">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>CRO</v>
+      </c>
+      <c r="G69" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>GHA</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3491,8 +4045,16 @@
       <c r="E70">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>ALG</v>
+      </c>
+      <c r="G70" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>AUT</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3508,8 +4070,16 @@
       <c r="E71">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>JOR</v>
+      </c>
+      <c r="G71" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>ARG</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3525,8 +4095,16 @@
       <c r="E72">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>COL</v>
+      </c>
+      <c r="G72" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>POR</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3542,8 +4120,16 @@
       <c r="E73">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <v>??1</v>
+      </c>
+      <c r="G73" t="str">
+        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <v>UZB</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3560,7 +4146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3577,7 +4163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3594,7 +4180,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3611,7 +4197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3628,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3645,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>

--- a/src/stp/database/2026-mens-world-cup.xlsx
+++ b/src/stp/database/2026-mens-world-cup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE1667-6F26-A44F-BC74-50CD9A8DE484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681F676-0FAB-3B4C-8962-6CE8B003691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="359">
   <si>
     <t>A1</t>
   </si>
@@ -426,48 +426,6 @@
     <t>timezone</t>
   </si>
   <si>
-    <t>WC 2026 Schedule / Scores</t>
-  </si>
-  <si>
-    <t>برنامه / امتیازات WC 2026</t>
-  </si>
-  <si>
-    <t>World Cup 2026 in North America</t>
-  </si>
-  <si>
-    <t>Copa del Mundo 2026 en América del Norte</t>
-  </si>
-  <si>
-    <t>Coppa del Mondo 2026 in Nord America</t>
-  </si>
-  <si>
-    <t>Coupe du monde 2026 en Amérique du Nord</t>
-  </si>
-  <si>
-    <t>Fußball-Weltmeisterschaft 2026 in Nordamerika</t>
-  </si>
-  <si>
-    <t>WK 2026 in Noord-Amerika</t>
-  </si>
-  <si>
-    <t>جام جهانی 2026 در آمریکای شمالی</t>
-  </si>
-  <si>
-    <t>Calendario y resultados de la Copa Mundial 2026</t>
-  </si>
-  <si>
-    <t>Calendario e punteggi WC 2026</t>
-  </si>
-  <si>
-    <t>Calendrier et résultats de la Coupe du monde 2026</t>
-  </si>
-  <si>
-    <t>WM 2026 Spielplan / Ergebnisse</t>
-  </si>
-  <si>
-    <t>WK 2026 Schema / Scores</t>
-  </si>
-  <si>
     <t>North America</t>
   </si>
   <si>
@@ -1110,9 +1068,6 @@
     <t>UZB</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>RU101</t>
   </si>
   <si>
@@ -1140,10 +1095,28 @@
     <t>US/Pacific</t>
   </si>
   <si>
-    <t>2026W杯 日程・スコア</t>
-  </si>
-  <si>
-    <t>2026北米W杯</t>
+    <t>World Cup</t>
+  </si>
+  <si>
+    <t>Copa del Mundo</t>
+  </si>
+  <si>
+    <t>Coppa del Mondo</t>
+  </si>
+  <si>
+    <t>Coupe du monde</t>
+  </si>
+  <si>
+    <t>Wereldkampioenschap</t>
+  </si>
+  <si>
+    <t>Weltmeisterschaft</t>
+  </si>
+  <si>
+    <t>W杯</t>
+  </si>
+  <si>
+    <t>جام جهانی</t>
   </si>
 </sst>
 </file>
@@ -1241,10 +1214,7 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -1256,7 +1226,10 @@
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
@@ -1278,8 +1251,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I21" totalsRowShown="0">
-  <autoFilter ref="A1:I21" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I20" totalsRowShown="0">
+  <autoFilter ref="A1:I20" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1304,16 +1277,16 @@
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
     <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="5">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="4">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1649,13 +1622,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1705,564 +1678,535 @@
         <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>351</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>131</v>
+        <v>352</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>353</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
+        <v>355</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>356</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>366</v>
+        <v>134</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>52</v>
+      <c r="A4" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>149</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>169</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>69</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>172</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>175</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>183</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>97</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>97</v>
+        <v>180</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>98</v>
+        <v>181</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>99</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I21" s="2" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2281,7 +2225,7 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:G105"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2734,10 +2678,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D18" s="6">
         <v>46189.791666666664</v>
@@ -2759,10 +2703,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D19" s="6">
         <v>46189.916666666664</v>
@@ -2784,10 +2728,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D20" s="6">
         <v>46190.041666666664</v>
@@ -2809,10 +2753,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D21" s="6">
         <v>46189.166666666664</v>
@@ -2834,10 +2778,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D22" s="6">
         <v>46190.958333333328</v>
@@ -2859,10 +2803,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D23" s="6">
         <v>46190.833333333328</v>
@@ -2884,10 +2828,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D24" s="6">
         <v>46190.708333333328</v>
@@ -2909,10 +2853,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D25" s="6">
         <v>46191.083333333328</v>
@@ -3334,10 +3278,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D42" s="6">
         <v>46196</v>
@@ -3359,10 +3303,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D43" s="6">
         <v>46195.875</v>
@@ -3384,10 +3328,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D44" s="6">
         <v>46195.708333333328</v>
@@ -3409,10 +3353,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D45" s="6">
         <v>46196.125</v>
@@ -3434,10 +3378,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D46" s="6">
         <v>46196.833333333328</v>
@@ -3459,10 +3403,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D47" s="6">
         <v>46196.958333333328</v>
@@ -3484,10 +3428,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D48" s="6">
         <v>46196.708333333328</v>
@@ -3509,10 +3453,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D49" s="6">
         <v>46197.083333333328</v>
@@ -3834,10 +3778,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D62" s="6">
         <v>46199.791666666664</v>
@@ -3859,10 +3803,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D63" s="6">
         <v>46199.791666666664</v>
@@ -3984,10 +3928,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D68" s="6">
         <v>46200.875</v>
@@ -4009,10 +3953,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D69" s="6">
         <v>46200.875</v>
@@ -4034,10 +3978,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D70" s="6">
         <v>46201.083333333328</v>
@@ -4059,10 +4003,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D71" s="6">
         <v>46201.083333333328</v>
@@ -4084,10 +4028,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D72" s="6">
         <v>46200.979166666664</v>
@@ -4109,10 +4053,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D73" s="6">
         <v>46200.979166666664</v>
@@ -4154,7 +4098,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D75" s="6">
         <v>46202.854166666664</v>
@@ -4202,10 +4146,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D78" s="6">
         <v>46203.875</v>
@@ -4222,7 +4166,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D79" s="6">
         <v>46203.708333333328</v>
@@ -4239,7 +4183,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D80" s="6">
         <v>46204.041666666664</v>
@@ -4253,10 +4197,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D81" s="6">
         <v>46204.666666666664</v>
@@ -4273,7 +4217,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D82" s="6">
         <v>46205</v>
@@ -4290,7 +4234,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D83" s="6">
         <v>46204.833333333328</v>
@@ -4304,10 +4248,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D84" s="6">
         <v>46205.958333333328</v>
@@ -4324,7 +4268,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D85" s="6">
         <v>46205.791666666664</v>
@@ -4341,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D86" s="6">
         <v>46206.125</v>
@@ -4355,7 +4299,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -4372,10 +4316,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D88" s="6">
         <v>46207.0625</v>
@@ -4406,10 +4350,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D90" s="6">
         <v>46207.875</v>
@@ -4423,10 +4367,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D91" s="6">
         <v>46207.708333333328</v>
@@ -4440,10 +4384,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D92" s="6">
         <v>46208.833333333328</v>
@@ -4457,10 +4401,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D93" s="6">
         <v>46209</v>
@@ -4474,10 +4418,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D94" s="6">
         <v>46209.791666666664</v>
@@ -4491,10 +4435,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D95" s="6">
         <v>46210</v>
@@ -4508,10 +4452,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D96" s="6">
         <v>46210.666666666664</v>
@@ -4525,10 +4469,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D97" s="6">
         <v>46210.833333333328</v>
@@ -4542,10 +4486,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D98" s="6">
         <v>46212.833333333328</v>
@@ -4559,10 +4503,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D99" s="6">
         <v>46213.791666666664</v>
@@ -4576,10 +4520,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D100" s="6">
         <v>46214.875</v>
@@ -4593,10 +4537,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D101" s="6">
         <v>46215.041666666664</v>
@@ -4610,10 +4554,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D102" s="6">
         <v>46217.791666666664</v>
@@ -4627,10 +4571,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D103" s="6">
         <v>46218.791666666664</v>
@@ -4644,10 +4588,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D104" s="6">
         <v>46221.875</v>
@@ -4661,10 +4605,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D105" s="6">
         <v>46222.791666666664</v>
@@ -4706,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4714,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -4722,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -4730,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -4738,7 +4682,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -4746,7 +4690,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -4754,7 +4698,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -4762,7 +4706,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -4770,7 +4714,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -4778,7 +4722,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -4786,7 +4730,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -4794,7 +4738,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -4810,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -4818,7 +4762,7 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4826,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -4834,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -4842,7 +4786,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -4850,7 +4794,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -4858,7 +4802,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -4866,7 +4810,7 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -4874,7 +4818,7 @@
         <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -4882,7 +4826,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -4890,7 +4834,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -4898,7 +4842,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -4906,7 +4850,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -4914,7 +4858,7 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -4922,7 +4866,7 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -4930,7 +4874,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -4938,7 +4882,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -4946,7 +4890,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -4954,76 +4898,76 @@
         <v>27</v>
       </c>
       <c r="B33" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>54</v>
@@ -5031,58 +4975,58 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B43" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B46" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B47" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B48" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -5196,7 +5140,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>125</v>
@@ -5218,7 +5162,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B9" t="s">
         <v>123</v>
@@ -5229,13 +5173,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="J10" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -5243,10 +5187,10 @@
         <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J11" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -5254,153 +5198,153 @@
         <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J12" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="J13" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="J14" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="J15" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="J17" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="J18" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="J19" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="J20" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B21" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" t="s">
         <v>262</v>
-      </c>
-      <c r="B21" t="s">
-        <v>275</v>
-      </c>
-      <c r="J21" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
         <v>263</v>
       </c>
-      <c r="B22" t="s">
-        <v>277</v>
-      </c>
       <c r="J22" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="J23" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="J24" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J25" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -5427,22 +5371,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D1" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="F1" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -5722,10 +5666,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D18" s="6">
         <v>46189.791666666664</v>
@@ -5739,10 +5683,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D19" s="6">
         <v>46189.916666666664</v>
@@ -5756,10 +5700,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D20" s="6">
         <v>46190.041666666664</v>
@@ -5773,10 +5717,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D21" s="6">
         <v>46189.166666666664</v>
@@ -5790,10 +5734,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C22" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="D22" s="6">
         <v>46190.958333333328</v>
@@ -5807,10 +5751,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D23" s="6">
         <v>46190.833333333328</v>
@@ -5824,10 +5768,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C24" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D24" s="6">
         <v>46190.708333333328</v>
@@ -5841,10 +5785,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="D25" s="6">
         <v>46191.083333333328</v>
@@ -6130,10 +6074,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C42" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D42" s="6">
         <v>46196</v>
@@ -6147,10 +6091,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C43" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D43" s="6">
         <v>46195.875</v>
@@ -6164,10 +6108,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C44" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D44" s="6">
         <v>46195.708333333328</v>
@@ -6181,10 +6125,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D45" s="6">
         <v>46196.125</v>
@@ -6198,10 +6142,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C46" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D46" s="6">
         <v>46196.833333333328</v>
@@ -6215,10 +6159,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C47" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D47" s="6">
         <v>46196.958333333328</v>
@@ -6232,10 +6176,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D48" s="6">
         <v>46196.708333333328</v>
@@ -6249,10 +6193,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D49" s="6">
         <v>46197.083333333328</v>
@@ -6470,10 +6414,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D62" s="6">
         <v>46199.791666666664</v>
@@ -6487,10 +6431,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D63" s="6">
         <v>46199.791666666664</v>
@@ -6572,10 +6516,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="D68" s="6">
         <v>46200.875</v>
@@ -6589,10 +6533,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C69" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="D69" s="6">
         <v>46200.875</v>
@@ -6606,10 +6550,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D70" s="6">
         <v>46201.083333333328</v>
@@ -6623,10 +6567,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D71" s="6">
         <v>46201.083333333328</v>
@@ -6640,10 +6584,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="C72" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D72" s="6">
         <v>46200.979166666664</v>
@@ -6657,10 +6601,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D73" s="6">
         <v>46200.979166666664</v>
@@ -6694,7 +6638,7 @@
         <v>40</v>
       </c>
       <c r="C75" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="D75" s="6">
         <v>46202.854166666664</v>
@@ -6742,10 +6686,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C78" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D78" s="6">
         <v>46203.875</v>
@@ -6762,7 +6706,7 @@
         <v>45</v>
       </c>
       <c r="C79" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="D79" s="6">
         <v>46203.708333333328</v>
@@ -6779,7 +6723,7 @@
         <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="D80" s="6">
         <v>46204.041666666664</v>
@@ -6793,10 +6737,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C81" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="D81" s="6">
         <v>46204.666666666664</v>
@@ -6813,7 +6757,7 @@
         <v>38</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="D82" s="6">
         <v>46205</v>
@@ -6830,7 +6774,7 @@
         <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="D83" s="6">
         <v>46204.833333333328</v>
@@ -6844,10 +6788,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D84" s="6">
         <v>46205.958333333328</v>
@@ -6864,7 +6808,7 @@
         <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D85" s="6">
         <v>46205.791666666664</v>
@@ -6881,7 +6825,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="D86" s="6">
         <v>46206.125</v>
@@ -6895,7 +6839,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C87" t="s">
         <v>43</v>
@@ -6912,10 +6856,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D88" s="6">
         <v>46207.0625</v>
@@ -6946,10 +6890,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="C90" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="D90" s="6">
         <v>46207.875</v>
@@ -6963,10 +6907,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D91" s="6">
         <v>46207.708333333328</v>
@@ -6980,10 +6924,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="D92" s="6">
         <v>46208.833333333328</v>
@@ -6997,10 +6941,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D93" s="6">
         <v>46209</v>
@@ -7014,10 +6958,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="C94" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="D94" s="6">
         <v>46209.791666666664</v>
@@ -7031,10 +6975,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D95" s="6">
         <v>46210</v>
@@ -7048,10 +6992,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C96" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="D96" s="6">
         <v>46210.666666666664</v>
@@ -7065,10 +7009,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="C97" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D97" s="6">
         <v>46210.833333333328</v>
@@ -7082,10 +7026,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C98" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D98" s="6">
         <v>46212.833333333328</v>
@@ -7099,10 +7043,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D99" s="6">
         <v>46213.791666666664</v>
@@ -7116,10 +7060,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C100" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D100" s="6">
         <v>46214.875</v>
@@ -7133,10 +7077,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D101" s="6">
         <v>46215.041666666664</v>
@@ -7150,10 +7094,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C102" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D102" s="6">
         <v>46217.791666666664</v>
@@ -7167,10 +7111,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C103" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D103" s="6">
         <v>46218.791666666664</v>
@@ -7184,10 +7128,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C104" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D104" s="6">
         <v>46221.875</v>
@@ -7201,10 +7145,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C105" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D105" s="6">
         <v>46222.791666666664</v>

--- a/src/stp/database/2026-mens-world-cup.xlsx
+++ b/src/stp/database/2026-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4681F676-0FAB-3B4C-8962-6CE8B003691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085CC0A-AE53-7247-A70E-8468DF38AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2100" yWindow="680" windowWidth="34200" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="395">
   <si>
     <t>A1</t>
   </si>
@@ -1117,6 +1117,114 @@
   </si>
   <si>
     <t>جام جهانی</t>
+  </si>
+  <si>
+    <t>competition-key</t>
+  </si>
+  <si>
+    <t>host-key</t>
+  </si>
+  <si>
+    <t>mens-world-cup</t>
+  </si>
+  <si>
+    <t>north-america</t>
+  </si>
+  <si>
+    <t>venue-key.1</t>
+  </si>
+  <si>
+    <t>ca-vancouver</t>
+  </si>
+  <si>
+    <t>venue-key.2</t>
+  </si>
+  <si>
+    <t>ca-toronto</t>
+  </si>
+  <si>
+    <t>venue-key.3</t>
+  </si>
+  <si>
+    <t>us-east-rutherford-nj</t>
+  </si>
+  <si>
+    <t>venue-key.4</t>
+  </si>
+  <si>
+    <t>us-kansas-city-mo</t>
+  </si>
+  <si>
+    <t>venue-key.5</t>
+  </si>
+  <si>
+    <t>us-dallas-tx</t>
+  </si>
+  <si>
+    <t>venue-key.6</t>
+  </si>
+  <si>
+    <t>us-houston-tx</t>
+  </si>
+  <si>
+    <t>venue-key.7</t>
+  </si>
+  <si>
+    <t>us-atlanta-ga</t>
+  </si>
+  <si>
+    <t>venue-key.8</t>
+  </si>
+  <si>
+    <t>us-los-angeles-ca</t>
+  </si>
+  <si>
+    <t>venue-key.9</t>
+  </si>
+  <si>
+    <t>us-philadelphia-pa</t>
+  </si>
+  <si>
+    <t>venue-key.10</t>
+  </si>
+  <si>
+    <t>us-seattle-wa</t>
+  </si>
+  <si>
+    <t>venue-key.11</t>
+  </si>
+  <si>
+    <t>us-santa-clara-ca</t>
+  </si>
+  <si>
+    <t>venue-key.12</t>
+  </si>
+  <si>
+    <t>us-boston-ma</t>
+  </si>
+  <si>
+    <t>venue-key.13</t>
+  </si>
+  <si>
+    <t>us-miami-fl</t>
+  </si>
+  <si>
+    <t>venue-key.14</t>
+  </si>
+  <si>
+    <t>mx-mexico-city</t>
+  </si>
+  <si>
+    <t>venue-key.15</t>
+  </si>
+  <si>
+    <t>mx-guadalajara</t>
+  </si>
+  <si>
+    <t>venue-key.16</t>
+  </si>
+  <si>
+    <t>mx-monterrey</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1359,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I20" totalsRowShown="0">
-  <autoFilter ref="A1:I20" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I38" totalsRowShown="0">
+  <autoFilter ref="A1:I38" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1622,13 +1730,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:I2"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1674,540 +1782,684 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>141</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>94</v>
+        <v>152</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>162</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>186</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>363</v>
+      </c>
+      <c r="B23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>367</v>
+      </c>
+      <c r="B25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>371</v>
+      </c>
+      <c r="B27" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B29" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>377</v>
+      </c>
+      <c r="B30" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>379</v>
+      </c>
+      <c r="B31" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>387</v>
+      </c>
+      <c r="B35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>389</v>
+      </c>
+      <c r="B36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B38" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>

--- a/src/stp/database/2026-mens-world-cup.xlsx
+++ b/src/stp/database/2026-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3085CC0A-AE53-7247-A70E-8468DF38AA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB0801B-E009-254B-BDB9-FEA296C6A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="680" windowWidth="34200" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Tournament" sheetId="8" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Seeds" sheetId="3" r:id="rId3"/>
     <sheet name="Colors" sheetId="9" r:id="rId4"/>
     <sheet name="#Work" sheetId="12" r:id="rId5"/>
+    <sheet name="Properties" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="405">
   <si>
     <t>A1</t>
   </si>
@@ -1119,112 +1120,142 @@
     <t>جام جهانی</t>
   </si>
   <si>
-    <t>competition-key</t>
-  </si>
-  <si>
-    <t>host-key</t>
-  </si>
-  <si>
     <t>mens-world-cup</t>
   </si>
   <si>
     <t>north-america</t>
   </si>
   <si>
-    <t>venue-key.1</t>
-  </si>
-  <si>
     <t>ca-vancouver</t>
   </si>
   <si>
-    <t>venue-key.2</t>
-  </si>
-  <si>
     <t>ca-toronto</t>
   </si>
   <si>
-    <t>venue-key.3</t>
-  </si>
-  <si>
     <t>us-east-rutherford-nj</t>
   </si>
   <si>
-    <t>venue-key.4</t>
-  </si>
-  <si>
     <t>us-kansas-city-mo</t>
   </si>
   <si>
-    <t>venue-key.5</t>
-  </si>
-  <si>
     <t>us-dallas-tx</t>
   </si>
   <si>
-    <t>venue-key.6</t>
-  </si>
-  <si>
     <t>us-houston-tx</t>
   </si>
   <si>
-    <t>venue-key.7</t>
-  </si>
-  <si>
     <t>us-atlanta-ga</t>
   </si>
   <si>
-    <t>venue-key.8</t>
-  </si>
-  <si>
     <t>us-los-angeles-ca</t>
   </si>
   <si>
-    <t>venue-key.9</t>
-  </si>
-  <si>
     <t>us-philadelphia-pa</t>
   </si>
   <si>
-    <t>venue-key.10</t>
-  </si>
-  <si>
     <t>us-seattle-wa</t>
   </si>
   <si>
-    <t>venue-key.11</t>
-  </si>
-  <si>
     <t>us-santa-clara-ca</t>
   </si>
   <si>
-    <t>venue-key.12</t>
-  </si>
-  <si>
     <t>us-boston-ma</t>
   </si>
   <si>
-    <t>venue-key.13</t>
-  </si>
-  <si>
     <t>us-miami-fl</t>
   </si>
   <si>
-    <t>venue-key.14</t>
-  </si>
-  <si>
     <t>mx-mexico-city</t>
   </si>
   <si>
-    <t>venue-key.15</t>
-  </si>
-  <si>
     <t>mx-guadalajara</t>
   </si>
   <si>
-    <t>venue-key.16</t>
-  </si>
-  <si>
     <t>mx-monterrey</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>color.h</t>
+  </si>
+  <si>
+    <t>color.c</t>
+  </si>
+  <si>
+    <t>color.b</t>
+  </si>
+  <si>
+    <t>color.a</t>
+  </si>
+  <si>
+    <t>color.d</t>
+  </si>
+  <si>
+    <t>color.k</t>
+  </si>
+  <si>
+    <t>color.e</t>
+  </si>
+  <si>
+    <t>color.i</t>
+  </si>
+  <si>
+    <t>color.j</t>
+  </si>
+  <si>
+    <t>color.f</t>
+  </si>
+  <si>
+    <t>color.g</t>
+  </si>
+  <si>
+    <t>color.l</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
+  <si>
+    <t>host</t>
+  </si>
+  <si>
+    <t>venue.01</t>
+  </si>
+  <si>
+    <t>venue.02</t>
+  </si>
+  <si>
+    <t>venue.03</t>
+  </si>
+  <si>
+    <t>venue.04</t>
+  </si>
+  <si>
+    <t>venue.05</t>
+  </si>
+  <si>
+    <t>venue.06</t>
+  </si>
+  <si>
+    <t>venue.07</t>
+  </si>
+  <si>
+    <t>venue.08</t>
+  </si>
+  <si>
+    <t>venue.09</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1351,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -1359,8 +1393,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I38" totalsRowShown="0">
-  <autoFilter ref="A1:I38" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}" name="tournament" displayName="tournament" ref="A1:I20" totalsRowShown="0">
+  <autoFilter ref="A1:I20" xr:uid="{A35F1197-A800-47A7-9FB8-27BA1E42FC3F}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8CDEDD3-FA49-4AD4-8D9F-D3DFCABC2052}" name="key"/>
     <tableColumn id="2" xr3:uid="{88778009-1F1A-4B0F-BCE2-A71F4DD7CF67}" name="en"/>
@@ -1383,18 +1417,18 @@
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
-    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="5">
+    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="6">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="5">
       <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,7 +1454,7 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{74FEACBC-8E4D-4EFA-8F69-50200C488F4A}" name="key"/>
     <tableColumn id="2" xr3:uid="{A581F199-5AED-47CD-9F67-78BB18ACA6D7}" name="en"/>
-    <tableColumn id="3" xr3:uid="{842A5943-6DCD-4A02-90FE-ED0B95974031}" name="es"/>
+    <tableColumn id="3" xr3:uid="{842A5943-6DCD-4A02-90FE-ED0B95974031}" name="es" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{EB776D2E-BA2B-4B63-836C-1F9E3AC3F6B1}" name="it"/>
     <tableColumn id="5" xr3:uid="{F1626DC6-0BA0-4AD1-8D24-7CD19F5D143B}" name="fr"/>
     <tableColumn id="6" xr3:uid="{9355CB98-CF08-4638-AE14-56346EAA7111}" name="de"/>
@@ -1428,6 +1462,21 @@
     <tableColumn id="8" xr3:uid="{373F278C-AA56-4847-9936-7CDB1D93754B}" name="ja"/>
     <tableColumn id="9" xr3:uid="{6DCFFACA-53BA-4D49-9A7E-5B9205135116}" name="fa"/>
     <tableColumn id="10" xr3:uid="{DB871EDA-A6EF-43E8-877D-5049B077A768}" name="notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{268CF291-2DA7-A249-AA9A-2466BEA72277}" name="Properties" displayName="Properties" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{268CF291-2DA7-A249-AA9A-2466BEA72277}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
+    <sortCondition ref="A1:A32"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{68C5F689-1C6E-7447-86DC-3B873BB33DDF}" name="key"/>
+    <tableColumn id="2" xr3:uid="{8ADCC9C7-8792-DE44-AD29-18DCA5C3A12F}" name="value"/>
+    <tableColumn id="3" xr3:uid="{4087737D-D3B3-3348-8386-43E032E970BD}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1730,13 +1779,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393FFACE-29F0-47F7-B7AD-389E0D6667C5}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:B38"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1782,684 +1831,540 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B2" t="s">
-        <v>361</v>
+      <c r="A2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B3" t="s">
-        <v>362</v>
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>76</v>
+      <c r="A4" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="G4" t="s">
-        <v>355</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="I4" t="s">
-        <v>358</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>128</v>
+      <c r="A5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>152</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>153</v>
+        <v>95</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>68</v>
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>69</v>
+      <c r="A14" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>158</v>
+        <v>105</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>161</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>97</v>
+        <v>184</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>98</v>
+        <v>185</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>176</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="2" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>365</v>
-      </c>
-      <c r="B24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>367</v>
-      </c>
-      <c r="B25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>369</v>
-      </c>
-      <c r="B26" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>371</v>
-      </c>
-      <c r="B27" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>373</v>
-      </c>
-      <c r="B28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>375</v>
-      </c>
-      <c r="B29" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>377</v>
-      </c>
-      <c r="B30" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>379</v>
-      </c>
-      <c r="B31" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>381</v>
-      </c>
-      <c r="B32" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>387</v>
-      </c>
-      <c r="B35" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>389</v>
-      </c>
-      <c r="B36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>391</v>
-      </c>
-      <c r="B37" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>393</v>
-      </c>
-      <c r="B38" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5295,7 +5200,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7412,4 +7317,321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38CA1FC-94A3-6547-BF39-2C141DC43337}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>396</v>
+      </c>
+      <c r="B17" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>397</v>
+      </c>
+      <c r="B18" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>398</v>
+      </c>
+      <c r="B19" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>400</v>
+      </c>
+      <c r="B21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>401</v>
+      </c>
+      <c r="B22" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>402</v>
+      </c>
+      <c r="B23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>403</v>
+      </c>
+      <c r="B24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>174</v>
+      </c>
+      <c r="B30" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/src/stp/database/2026-mens-world-cup.xlsx
+++ b/src/stp/database/2026-mens-world-cup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bruceoberg/code/soccer-tourney-poster/src/stp/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24810396-C6DE-074C-B64B-632AD021EC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E053B6F-5B47-BF4F-A60C-4CE17B38AB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="620" windowWidth="34200" windowHeight="19280" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="19280" activeTab="1" xr2:uid="{51C3DE88-701F-4CAC-8963-452186F7FFBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Properties" sheetId="13" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="253">
   <si>
     <t>A1</t>
   </si>
@@ -788,6 +788,15 @@
   </si>
   <si>
     <t>venue.09</t>
+  </si>
+  <si>
+    <t>home-known</t>
+  </si>
+  <si>
+    <t>away-known</t>
+  </si>
+  <si>
+    <t>after-extra-time</t>
   </si>
 </sst>
 </file>
@@ -869,7 +878,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     </dxf>
@@ -923,24 +935,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:K105" totalsRowShown="0">
-  <autoFilter ref="A1:K105" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}" name="matches" displayName="matches" ref="A1:N105" totalsRowShown="0">
+  <autoFilter ref="A1:N105" xr:uid="{D36B1D81-AA68-4E33-AA36-B206B4FF7406}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{35D3E9F5-BB3B-4940-9EB6-C927FD84875C}" name="match"/>
     <tableColumn id="2" xr3:uid="{97337EE3-AAC3-4452-8381-1A56C6B35138}" name="home-seed"/>
     <tableColumn id="3" xr3:uid="{AEDB8750-5B25-4357-9054-E49FECC94717}" name="away-seed"/>
-    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-team" dataDxfId="5">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{B178F43D-E631-4314-9E59-2CDA6EDA94F1}" name="time" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{A42548B2-C8DF-4D47-B798-8E23FCB67696}" name="venue" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{FC876643-4BF9-4FDA-A0ED-DF50FF384B1F}" name="home-known" dataDxfId="6">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-team" dataDxfId="4">
-      <calculatedColumnFormula>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{E5D59926-7D0A-4689-A049-F55DB0E286E9}" name="away-known" dataDxfId="5">
+      <calculatedColumnFormula>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{1D7BA3FB-80F3-DD4D-AB1A-901F7CE41FBA}" name="home-team"/>
+    <tableColumn id="12" xr3:uid="{AC0139B3-7839-F243-81F2-C8F8601CBDE1}" name="away-team"/>
+    <tableColumn id="6" xr3:uid="{A0CDBBB6-1128-45BC-8300-89FE399860C1}" name="home-score" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{95DA1082-F87D-4A64-B45A-77AEEA888386}" name="away-score" dataDxfId="3"/>
+    <tableColumn id="14" xr3:uid="{AF9504D2-0653-5049-AD21-E4B2A9F7499E}" name="after-extra-time" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{5865175D-2339-4B50-A707-595597D0BEF5}" name="home-tiebreaker" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{967E27DF-151D-40C4-9623-59691A5D7311}" name="away-tiebreaker" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1259,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38CA1FC-94A3-6547-BF39-2C141DC43337}">
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1574,23 +1589,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2ABE575-0207-4299-82CD-74F27B6194DA}">
-  <dimension ref="A1:K105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1607,25 +1623,34 @@
         <v>50</v>
       </c>
       <c r="F1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>55</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>252</v>
+      </c>
+      <c r="M1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1642,15 +1667,15 @@
         <v>14</v>
       </c>
       <c r="F2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MEX</v>
       </c>
       <c r="G2" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1667,15 +1692,15 @@
         <v>15</v>
       </c>
       <c r="F3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
       <c r="G3" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??D</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1692,15 +1717,15 @@
         <v>2</v>
       </c>
       <c r="F4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
       <c r="G4" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??A</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1717,15 +1742,15 @@
         <v>8</v>
       </c>
       <c r="F5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G5" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAR</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1742,15 +1767,15 @@
         <v>12</v>
       </c>
       <c r="F6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
       <c r="G6" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SCO</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1767,15 +1792,15 @@
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
       <c r="G7" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??C</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1792,15 +1817,15 @@
         <v>3</v>
       </c>
       <c r="F8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
       <c r="G8" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1817,15 +1842,15 @@
         <v>11</v>
       </c>
       <c r="F9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>QAT</v>
       </c>
       <c r="G9" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1842,15 +1867,15 @@
         <v>9</v>
       </c>
       <c r="F10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CIV</v>
       </c>
       <c r="G10" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ECU</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1867,15 +1892,15 @@
         <v>6</v>
       </c>
       <c r="F11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G11" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CUW</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1892,15 +1917,15 @@
         <v>5</v>
       </c>
       <c r="F12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
       <c r="G12" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1917,15 +1942,15 @@
         <v>16</v>
       </c>
       <c r="F13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??B</v>
       </c>
       <c r="G13" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>TUN</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1942,15 +1967,15 @@
         <v>13</v>
       </c>
       <c r="F14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>KSA</v>
       </c>
       <c r="G14" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>URU</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1967,15 +1992,15 @@
         <v>7</v>
       </c>
       <c r="F15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G15" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CPV</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1992,11 +2017,11 @@
         <v>8</v>
       </c>
       <c r="F16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>IRN</v>
       </c>
       <c r="G16" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
     </row>
@@ -2017,11 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BEL</v>
       </c>
       <c r="G17" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>EGY</v>
       </c>
     </row>
@@ -2042,11 +2067,11 @@
         <v>3</v>
       </c>
       <c r="F18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
       <c r="G18" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SEN</v>
       </c>
     </row>
@@ -2067,11 +2092,11 @@
         <v>12</v>
       </c>
       <c r="F19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??2</v>
       </c>
       <c r="G19" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
     </row>
@@ -2092,11 +2117,11 @@
         <v>4</v>
       </c>
       <c r="F20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G20" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ALG</v>
       </c>
     </row>
@@ -2117,11 +2142,11 @@
         <v>11</v>
       </c>
       <c r="F21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>AUT</v>
       </c>
       <c r="G21" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JOR</v>
       </c>
     </row>
@@ -2142,11 +2167,11 @@
         <v>2</v>
       </c>
       <c r="F22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GHA</v>
       </c>
       <c r="G22" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
     </row>
@@ -2167,11 +2192,11 @@
         <v>5</v>
       </c>
       <c r="F23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
       <c r="G23" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CRO</v>
       </c>
     </row>
@@ -2192,11 +2217,11 @@
         <v>6</v>
       </c>
       <c r="F24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G24" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??1</v>
       </c>
     </row>
@@ -2217,11 +2242,11 @@
         <v>14</v>
       </c>
       <c r="F25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>UZB</v>
       </c>
       <c r="G25" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
     </row>
@@ -2242,11 +2267,11 @@
         <v>7</v>
       </c>
       <c r="F26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??D</v>
       </c>
       <c r="G26" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
     </row>
@@ -2267,11 +2292,11 @@
         <v>8</v>
       </c>
       <c r="F27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
       <c r="G27" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??A</v>
       </c>
     </row>
@@ -2292,11 +2317,11 @@
         <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
       <c r="G28" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>QAT</v>
       </c>
     </row>
@@ -2317,11 +2342,11 @@
         <v>15</v>
       </c>
       <c r="F29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MEX</v>
       </c>
       <c r="G29" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
     </row>
@@ -2342,11 +2367,11 @@
         <v>9</v>
       </c>
       <c r="F30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
       <c r="G30" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
     </row>
@@ -2367,11 +2392,11 @@
         <v>12</v>
       </c>
       <c r="F31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SCO</v>
       </c>
       <c r="G31" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
     </row>
@@ -2392,11 +2417,11 @@
         <v>11</v>
       </c>
       <c r="F32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??C</v>
       </c>
       <c r="G32" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>PAR</v>
       </c>
     </row>
@@ -2417,11 +2442,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
       <c r="G33" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
     </row>
@@ -2442,11 +2467,11 @@
         <v>2</v>
       </c>
       <c r="F34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
       <c r="G34" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CIV</v>
       </c>
     </row>
@@ -2467,11 +2492,11 @@
         <v>4</v>
       </c>
       <c r="F35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ECU</v>
       </c>
       <c r="G35" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CUW</v>
       </c>
     </row>
@@ -2492,11 +2517,11 @@
         <v>6</v>
       </c>
       <c r="F36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
       <c r="G36" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??B</v>
       </c>
     </row>
@@ -2517,11 +2542,11 @@
         <v>16</v>
       </c>
       <c r="F37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>TUN</v>
       </c>
       <c r="G37" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
     </row>
@@ -2542,11 +2567,11 @@
         <v>13</v>
       </c>
       <c r="F38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>URU</v>
       </c>
       <c r="G38" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CPV</v>
       </c>
     </row>
@@ -2567,11 +2592,11 @@
         <v>7</v>
       </c>
       <c r="F39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
       <c r="G39" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>KSA</v>
       </c>
     </row>
@@ -2592,11 +2617,11 @@
         <v>8</v>
       </c>
       <c r="F40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>BEL</v>
       </c>
       <c r="G40" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>IRN</v>
       </c>
     </row>
@@ -2617,11 +2642,11 @@
         <v>1</v>
       </c>
       <c r="F41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
       <c r="G41" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>EGY</v>
       </c>
     </row>
@@ -2642,11 +2667,11 @@
         <v>3</v>
       </c>
       <c r="F42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
       <c r="G42" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>SEN</v>
       </c>
     </row>
@@ -2667,11 +2692,11 @@
         <v>9</v>
       </c>
       <c r="F43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
       <c r="G43" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??2</v>
       </c>
     </row>
@@ -2692,11 +2717,11 @@
         <v>5</v>
       </c>
       <c r="F44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
       <c r="G44" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AUT</v>
       </c>
     </row>
@@ -2717,11 +2742,11 @@
         <v>11</v>
       </c>
       <c r="F45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JOR</v>
       </c>
       <c r="G45" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ALG</v>
       </c>
     </row>
@@ -2742,11 +2767,11 @@
         <v>12</v>
       </c>
       <c r="F46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
       <c r="G46" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>GHA</v>
       </c>
     </row>
@@ -2767,11 +2792,11 @@
         <v>2</v>
       </c>
       <c r="F47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
       <c r="G47" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CRO</v>
       </c>
     </row>
@@ -2792,11 +2817,11 @@
         <v>6</v>
       </c>
       <c r="F48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
       <c r="G48" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>UZB</v>
       </c>
     </row>
@@ -2817,11 +2842,11 @@
         <v>15</v>
       </c>
       <c r="F49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
       <c r="G49" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??1</v>
       </c>
     </row>
@@ -2842,11 +2867,11 @@
         <v>13</v>
       </c>
       <c r="F50" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SCO</v>
       </c>
       <c r="G50" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BRA</v>
       </c>
     </row>
@@ -2867,11 +2892,11 @@
         <v>7</v>
       </c>
       <c r="F51" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>MAR</v>
       </c>
       <c r="G51" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>HAI</v>
       </c>
     </row>
@@ -2892,11 +2917,11 @@
         <v>1</v>
       </c>
       <c r="F52" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SUI</v>
       </c>
       <c r="G52" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CAN</v>
       </c>
     </row>
@@ -2917,11 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??A</v>
       </c>
       <c r="G53" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>QAT</v>
       </c>
     </row>
@@ -2942,11 +2967,11 @@
         <v>14</v>
       </c>
       <c r="F54" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??D</v>
       </c>
       <c r="G54" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>MEX</v>
       </c>
     </row>
@@ -2967,11 +2992,11 @@
         <v>16</v>
       </c>
       <c r="F55" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SAF</v>
       </c>
       <c r="G55" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>KOR</v>
       </c>
     </row>
@@ -2992,11 +3017,11 @@
         <v>9</v>
       </c>
       <c r="F56" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CUW</v>
       </c>
       <c r="G56" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>CIV</v>
       </c>
     </row>
@@ -3017,11 +3042,11 @@
         <v>3</v>
       </c>
       <c r="F57" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ECU</v>
       </c>
       <c r="G57" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>GER</v>
       </c>
     </row>
@@ -3042,11 +3067,11 @@
         <v>5</v>
       </c>
       <c r="F58" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JPN</v>
       </c>
       <c r="G58" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??B</v>
       </c>
     </row>
@@ -3067,11 +3092,11 @@
         <v>4</v>
       </c>
       <c r="F59" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>TUN</v>
       </c>
       <c r="G59" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>NED</v>
       </c>
     </row>
@@ -3092,11 +3117,11 @@
         <v>8</v>
       </c>
       <c r="F60" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??C</v>
       </c>
       <c r="G60" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>USA</v>
       </c>
     </row>
@@ -3117,11 +3142,11 @@
         <v>11</v>
       </c>
       <c r="F61" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAR</v>
       </c>
       <c r="G61" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AUS</v>
       </c>
     </row>
@@ -3142,11 +3167,11 @@
         <v>12</v>
       </c>
       <c r="F62" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NOR</v>
       </c>
       <c r="G62" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>FRA</v>
       </c>
     </row>
@@ -3167,11 +3192,11 @@
         <v>2</v>
       </c>
       <c r="F63" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>SEN</v>
       </c>
       <c r="G63" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>??2</v>
       </c>
     </row>
@@ -3192,11 +3217,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>EGY</v>
       </c>
       <c r="G64" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>IRN</v>
       </c>
     </row>
@@ -3217,11 +3242,11 @@
         <v>1</v>
       </c>
       <c r="F65" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>NZL</v>
       </c>
       <c r="G65" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>BEL</v>
       </c>
     </row>
@@ -3242,11 +3267,11 @@
         <v>6</v>
       </c>
       <c r="F66" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CPV</v>
       </c>
       <c r="G66" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>KSA</v>
       </c>
     </row>
@@ -3267,11 +3292,11 @@
         <v>15</v>
       </c>
       <c r="F67" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>URU</v>
       </c>
       <c r="G67" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ESP</v>
       </c>
     </row>
@@ -3292,11 +3317,11 @@
         <v>3</v>
       </c>
       <c r="F68" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>PAN</v>
       </c>
       <c r="G68" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ENG</v>
       </c>
     </row>
@@ -3317,11 +3342,11 @@
         <v>9</v>
       </c>
       <c r="F69" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>CRO</v>
       </c>
       <c r="G69" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>GHA</v>
       </c>
     </row>
@@ -3342,11 +3367,11 @@
         <v>4</v>
       </c>
       <c r="F70" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>ALG</v>
       </c>
       <c r="G70" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>AUT</v>
       </c>
     </row>
@@ -3367,11 +3392,11 @@
         <v>5</v>
       </c>
       <c r="F71" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>JOR</v>
       </c>
       <c r="G71" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>ARG</v>
       </c>
     </row>
@@ -3392,11 +3417,11 @@
         <v>13</v>
       </c>
       <c r="F72" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>COL</v>
       </c>
       <c r="G72" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>POR</v>
       </c>
     </row>
@@ -3417,11 +3442,11 @@
         <v>7</v>
       </c>
       <c r="F73" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
         <v>??1</v>
       </c>
       <c r="G73" t="str">
-        <f>INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0))</f>
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
         <v>UZB</v>
       </c>
     </row>
@@ -3441,6 +3466,14 @@
       <c r="E74">
         <v>8</v>
       </c>
+      <c r="F74" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G74" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -3458,6 +3491,14 @@
       <c r="E75">
         <v>12</v>
       </c>
+      <c r="F75" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G75" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -3475,6 +3516,14 @@
       <c r="E76">
         <v>16</v>
       </c>
+      <c r="F76" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G76" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
@@ -3492,6 +3541,14 @@
       <c r="E77">
         <v>6</v>
       </c>
+      <c r="F77" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G77" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -3509,6 +3566,14 @@
       <c r="E78">
         <v>3</v>
       </c>
+      <c r="F78" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G78" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -3526,6 +3591,14 @@
       <c r="E79">
         <v>5</v>
       </c>
+      <c r="F79" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G79" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -3543,8 +3616,16 @@
       <c r="E80">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G80" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3560,8 +3641,16 @@
       <c r="E81">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G81" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3577,8 +3666,16 @@
       <c r="E82">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G82" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3594,8 +3691,16 @@
       <c r="E83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G83" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3611,8 +3716,16 @@
       <c r="E84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3628,8 +3741,16 @@
       <c r="E85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G85" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3645,8 +3766,16 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G86" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3662,8 +3791,16 @@
       <c r="E87">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G87" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3679,8 +3816,16 @@
       <c r="E88">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G88" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3696,8 +3841,16 @@
       <c r="E89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G89" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3713,8 +3866,16 @@
       <c r="E90">
         <v>9</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G90" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3730,8 +3891,16 @@
       <c r="E91">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G91" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3747,8 +3916,16 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G92" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3764,8 +3941,16 @@
       <c r="E93">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G93" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3781,8 +3966,16 @@
       <c r="E94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G94" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3798,8 +3991,16 @@
       <c r="E95">
         <v>10</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G95" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3815,8 +4016,16 @@
       <c r="E96">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G96" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3832,8 +4041,16 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G97" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3849,8 +4066,16 @@
       <c r="E98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G98" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3866,8 +4091,16 @@
       <c r="E99">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G99" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3883,8 +4116,16 @@
       <c r="E100">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G100" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3900,8 +4141,16 @@
       <c r="E101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G101" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3917,8 +4166,16 @@
       <c r="E102">
         <v>5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G102" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3934,8 +4191,16 @@
       <c r="E103">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G103" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3951,8 +4216,16 @@
       <c r="E104">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G104" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3967,6 +4240,14 @@
       </c>
       <c r="E105">
         <v>3</v>
+      </c>
+      <c r="F105" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[home-seed]],seeds[seed],0)),"")</f>
+        <v/>
+      </c>
+      <c r="G105" t="str">
+        <f>_xlfn.IFNA(INDEX(seeds[team],MATCH(matches[[#This Row],[away-seed]],seeds[seed],0)),"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
